--- a/notas.xlsx
+++ b/notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juang\Desktop\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65773AC6-A1C6-417F-9811-BB9FC95D7DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC906E5-EA8A-4541-AE9F-E68CCDDFA221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{940BD929-8F75-426B-8042-091F9C1DFCAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>FK</t>
-  </si>
-  <si>
-    <t>CHAR 30</t>
   </si>
   <si>
     <t>FINCA</t>
@@ -139,13 +136,13 @@
     <t>Spa</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
     <t>VARCHAR 100</t>
+  </si>
+  <si>
+    <t>VARCHAR 10</t>
+  </si>
+  <si>
+    <t>MONEY</t>
   </si>
 </sst>
 </file>
@@ -218,13 +215,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,258 +915,258 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="2" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="2"/>
-    <col min="6" max="6" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2"/>
-    <col min="10" max="10" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="1"/>
+    <col min="10" max="10" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+      <c r="K10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="J10" s="3"/>
-      <c r="K10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="3" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="3" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
